--- a/CarSharingApplication/Documents/DATA.xlsx
+++ b/CarSharingApplication/Documents/DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles" sheetId="1" r:id="rId1"/>
@@ -911,7 +911,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,11 +936,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -950,18 +945,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -990,30 +979,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1289,7 @@
       <selection activeCell="C13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.140625" style="1" customWidth="1"/>
@@ -1311,7 +1297,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1322,7 +1308,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30.75" customHeight="1">
+    <row r="2" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1319,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" customHeight="1">
+    <row r="3" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1330,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" customHeight="1">
+    <row r="4" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" customHeight="1">
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1">
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1388,7 +1374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1385,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1410,7 +1396,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1421,7 +1407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1418,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1454,7 +1440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1465,7 +1451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1487,7 +1473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1509,7 +1495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1520,7 +1506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1528,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1553,7 +1539,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1564,7 +1550,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1575,7 +1561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1586,7 +1572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1607,11 +1593,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:F59"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
@@ -1626,866 +1612,866 @@
     <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <v>27938</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>34786</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="6" t="e">
+      <c r="C4" s="7" t="e">
         <f>-hv3Ib4adQ</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <v>38097</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>31856</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>29433</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>26675</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>28758</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>35135</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="11">
         <v>37252</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>36201</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>30746</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>35767</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <v>38106</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <v>28959</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="15.75">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>33975</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="6" t="e">
+      <c r="C17" s="7" t="e">
         <f>-H9Qfu-oRx</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <v>36338</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <v>34910</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <v>37855</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <v>26705</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <v>27096</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="6" t="e">
+      <c r="C22" s="7" t="e">
         <f>-boXY85PsY</f>
         <v>#NAME?</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <v>34962</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="9">
         <v>37965</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <v>33043</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="9">
         <v>26206</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <v>30280</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <v>29593</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <v>36662</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <v>37357</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <v>28814</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:9" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="6" t="e">
+      <c r="C31" s="7" t="e">
         <f>-Jzqi7UsCI</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <v>30880</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I32" s="3"/>
     </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="12">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="6">
         <v>27938</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="12">
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="6">
         <v>34786</v>
       </c>
     </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="12">
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="6">
         <v>38097</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="12">
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="6">
         <v>31856</v>
       </c>
     </row>
-    <row r="38" spans="7:7" ht="13.5" customHeight="1">
-      <c r="G38" s="12">
+    <row r="38" spans="7:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="6">
         <v>29433</v>
       </c>
     </row>
-    <row r="39" spans="7:7" ht="14.25" customHeight="1">
-      <c r="G39" s="12">
+    <row r="39" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="6">
         <v>26675</v>
       </c>
     </row>
-    <row r="40" spans="7:7" ht="14.25" customHeight="1">
-      <c r="G40" s="12">
+    <row r="40" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="6">
         <v>28758</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="12">
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="6">
         <v>35135</v>
       </c>
     </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="12">
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="6">
         <v>37252</v>
       </c>
     </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="12">
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="6">
         <v>30746</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
-      <c r="G44" s="12">
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="6">
         <v>38106</v>
       </c>
     </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="12">
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="6">
         <v>28959</v>
       </c>
     </row>
-    <row r="46" spans="7:7">
-      <c r="G46" s="12">
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="6">
         <v>33975</v>
       </c>
     </row>
-    <row r="47" spans="7:7">
-      <c r="G47" s="12">
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="6">
         <v>36338</v>
       </c>
     </row>
-    <row r="48" spans="7:7" ht="15" customHeight="1">
-      <c r="G48" s="12">
+    <row r="48" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="6">
         <v>34910</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="G49" s="12">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="6">
         <v>37855</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="G50" s="12">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="6">
         <v>26705</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1">
-      <c r="G51" s="12">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="6">
         <v>27096</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="G52" s="12">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="6">
         <v>34962</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="G53" s="12">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="6">
         <v>37965</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1">
-      <c r="G54" s="12">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="6">
         <v>26206</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="G55" s="12">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="6">
         <v>29593</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="G56" s="12">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="6">
         <v>36662</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1">
-      <c r="G57" s="12">
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="6">
         <v>37357</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="G58" s="12">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="6">
         <v>28814</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
-      <c r="G59" s="12">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="6">
         <v>30880</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2508,9 +2494,20 @@
     <hyperlink ref="B17" r:id="rId17"/>
     <hyperlink ref="B20" r:id="rId18"/>
     <hyperlink ref="B19" r:id="rId19"/>
+    <hyperlink ref="B31" r:id="rId20"/>
+    <hyperlink ref="B30" r:id="rId21"/>
+    <hyperlink ref="B29" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B27" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B25" r:id="rId26"/>
+    <hyperlink ref="B24" r:id="rId27"/>
+    <hyperlink ref="B23" r:id="rId28"/>
+    <hyperlink ref="B22" r:id="rId29"/>
+    <hyperlink ref="B21" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2518,532 +2515,529 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="60">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="60">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="60">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="60">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="60">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="60">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="60">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="60">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="60">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="60">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="60">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="60">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="60">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="60">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="5" t="s">
         <v>148</v>
       </c>
     </row>

--- a/CarSharingApplication/Documents/DATA.xlsx
+++ b/CarSharingApplication/Documents/DATA.xlsx
@@ -1593,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,134 +2333,82 @@
       <c r="I32" s="3"/>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="6">
-        <v>27938</v>
-      </c>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="6">
-        <v>34786</v>
-      </c>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="6">
-        <v>38097</v>
-      </c>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="6">
-        <v>31856</v>
-      </c>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="7:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="6">
-        <v>29433</v>
-      </c>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="6">
-        <v>26675</v>
-      </c>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="7:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="6">
-        <v>28758</v>
-      </c>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="6">
-        <v>35135</v>
-      </c>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="6">
-        <v>37252</v>
-      </c>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" s="6">
-        <v>30746</v>
-      </c>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" s="6">
-        <v>38106</v>
-      </c>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="6">
-        <v>28959</v>
-      </c>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="6">
-        <v>33975</v>
-      </c>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" s="6">
-        <v>36338</v>
-      </c>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="6">
-        <v>34910</v>
-      </c>
+      <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G49" s="6">
-        <v>37855</v>
-      </c>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G50" s="6">
-        <v>26705</v>
-      </c>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="6">
-        <v>27096</v>
-      </c>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="6">
-        <v>34962</v>
-      </c>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G53" s="6">
-        <v>37965</v>
-      </c>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="6">
-        <v>26206</v>
-      </c>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G55" s="6">
-        <v>29593</v>
-      </c>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G56" s="6">
-        <v>36662</v>
-      </c>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="6">
-        <v>37357</v>
-      </c>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G58" s="6">
-        <v>28814</v>
-      </c>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G59" s="6">
-        <v>30880</v>
-      </c>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
